--- a/pred_ohlcv/54_21/2020-01-14 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ZEC ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>10466.29512535</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -808,7 +808,7 @@
         <v>10456.39512535</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10461.33862535</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>10461.33862535</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>10461.36442535</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>10461.11142535</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>10444.31822535</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>10739.95662535</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>10730.20812535</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>10675.04232535</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>10756.98062535</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>10637.82702535</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>10650.23862535</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10660.93182535</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>11001.04722535</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>10988.78852535</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>10988.78852535</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>10988.78852535</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10988.78852535</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>10988.86292535</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10973.42632535</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>10974.42632535</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>10975.66632535</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>10969.66632535</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>11138.16870393</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>11138.16870393</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>11151.61412535</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>11151.97494298</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>11253.18895691</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>11321.27117164</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>11315.70287164</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>11259.05467164</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>11275.41847164</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>11265.66193961</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>11229.66193961</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>11235.42163961</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>11233.49023961</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>11233.49023961</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>11228.63893961</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>11228.63893961</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>11230.20833961</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>10680.51508259</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>10703.90268259</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>10762.52458259</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>10689.17448259</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>10731.04338259</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>10731.04338259</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>10657.58737252</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>10777.61787252</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>10860.53387252</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>10896.53937252</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>11345.92507252</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>11205.0459548</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>11289.7448548</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>11440.8496548</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>11376.6217548</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>11273.5266548</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>11257.0760548</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>11262.0757548</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>11260.13352728</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>11257.98072728</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>11491.21568968</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>11403.92128968</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>11403.92128968</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>11395.18988968</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>11397.64208968</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>11397.64208968</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>11397.64208968</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>11393.46088968</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>11386.37958968</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>11381.35958968</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>11374.27498968</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>11476.33908968</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>11475.78918968</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>11473.33528968</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>11471.26668968</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>11486.28628968</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>11486.28628968</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>11486.34478968</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>11455.21518968</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>11455.21518968</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>11455.21518968</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>11443.28368968</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>11443.40598968</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>11443.40598968</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>11410.62728968</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>11410.62728968</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>11411.00408968</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>11410.54188968</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>11412.99508968</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>11391.17978968</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>11390.83068968</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>10942.36758968</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>10943.36758968</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>10938.66758968</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>10959.16758968</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>10941.32698968</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>11302.96008968</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>11268.045786</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>11232.745786</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>11464.36731183</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>11461.35091183</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>11419.63661183</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>11397.31461183</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>11395.74721183</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>11412.58551183</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>11402.58551183</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>11418.74891183</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>11455.94511183</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>11255.97511183</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>11250.80071183</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>11251.90361183</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>11251.90361183</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>11188.59391183</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>11164.59391183</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>11154.59391183</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 ZEC ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>10466.29512535</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -808,7 +808,7 @@
         <v>10456.39512535</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10461.33862535</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>10461.33862535</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>10461.36442535</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>10461.11142535</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>10444.31822535</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>10739.95662535</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>10730.20812535</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>10675.04232535</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>10756.98062535</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>10637.82702535</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>10650.23862535</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10660.93182535</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>11001.04722535</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>10988.78852535</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>10988.78852535</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>10988.78852535</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10988.78852535</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>10988.86292535</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10973.42632535</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>10974.42632535</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>10975.66632535</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>10969.66632535</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>11138.16870393</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>11138.16870393</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>11151.61412535</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>11151.97494298</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>11253.18895691</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>11321.27117164</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>11315.70287164</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>11259.05467164</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>11275.41847164</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>11265.66193961</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>11229.66193961</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>11235.42163961</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>11233.49023961</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>11233.49023961</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>11228.63893961</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>11228.63893961</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>11230.20833961</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>10762.52458259</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>10689.17448259</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>10731.04338259</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>10731.04338259</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>10657.58737252</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>10777.61787252</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>10860.53387252</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>10896.53937252</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>11345.92507252</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>11205.0459548</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>11289.7448548</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>11440.8496548</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>11376.6217548</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>11273.5266548</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>11257.0760548</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>11262.0757548</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>11260.13352728</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>11257.98072728</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>11491.21568968</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>11403.92128968</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>11403.92128968</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>11395.18988968</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>11397.64208968</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>11397.64208968</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>11397.64208968</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>11393.46088968</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>11386.37958968</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>11381.35958968</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>11374.27498968</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>11476.33908968</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>11475.78918968</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>11473.33528968</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>11471.26668968</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>11486.28628968</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>11486.28628968</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>11486.34478968</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>11455.21518968</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>11455.21518968</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>11455.21518968</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>11443.28368968</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>11443.40598968</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>11443.40598968</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>11410.62728968</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>11410.62728968</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>10943.36758968</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>10938.66758968</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>10959.16758968</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>10941.32698968</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>11302.96008968</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>11268.045786</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>11232.745786</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>11464.36731183</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>11461.35091183</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>11419.63661183</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>11397.31461183</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>11395.74721183</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>11251.90361183</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
